--- a/app/template.xlsx
+++ b/app/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miladrahimi/Projects/Ateriad/traffic/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC4700-3743-8D41-B919-C25F40292DCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D084F98-C7E6-004A-8D31-D58526CA7440}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:J465"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -484,11 +484,13 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="4"/>
     </row>
@@ -500,6 +502,7 @@
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -723,217 +726,217 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
